--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010" tabRatio="721" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010" tabRatio="721"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -669,9 +669,6 @@
     <t>Should not allow user to create account display error message "You can't leave this field empty"</t>
   </si>
   <si>
-    <t>Ente password along with spaces</t>
-  </si>
-  <si>
     <t>ab  cd</t>
   </si>
   <si>
@@ -751,9 +748,6 @@
   </si>
   <si>
     <t>Make sure user is navigated to Homepage and Clicked Singup link</t>
-  </si>
-  <si>
-    <t>Verify entry firstname with alpha numeric combination</t>
   </si>
   <si>
     <t>Sunil123</t>
@@ -967,6 +961,12 @@
   </si>
   <si>
     <t>https://reqres.in/api/users?page=2</t>
+  </si>
+  <si>
+    <t>Verify entry firstname with alpha numeric/ Special charcters combination</t>
+  </si>
+  <si>
+    <t>Enter password along with spaces</t>
   </si>
 </sst>
 </file>
@@ -1765,8 +1765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD561"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82:E84"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101:G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2122,7 +2122,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>17</v>
@@ -2180,10 +2180,10 @@
         <v>20</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
@@ -2212,10 +2212,10 @@
         <v>27</v>
       </c>
       <c r="H16" s="37" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
@@ -2284,7 +2284,7 @@
       <c r="H19" s="32"/>
       <c r="I19" s="21"/>
       <c r="J19" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="45">
@@ -2435,13 +2435,13 @@
         <v>62</v>
       </c>
       <c r="E27" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="G27" s="32" t="s">
         <v>227</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>229</v>
       </c>
       <c r="H27" s="32"/>
       <c r="I27" s="21"/>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="H32" s="32"/>
       <c r="I32" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="30">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="H33" s="32"/>
       <c r="I33" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="30">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="H34" s="32"/>
       <c r="I34" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J34" s="24" t="s">
         <v>194</v>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="H35" s="32"/>
       <c r="I35" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2622,7 +2622,7 @@
       <c r="G36" s="34"/>
       <c r="H36" s="32"/>
       <c r="I36" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="45">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="H37" s="32"/>
       <c r="I37" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="45">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="H38" s="32"/>
       <c r="I38" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="45">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="H39" s="32"/>
       <c r="I39" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="45">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="H40" s="32"/>
       <c r="I40" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="45">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="H41" s="32"/>
       <c r="I41" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J41" s="24" t="s">
         <v>195</v>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="H42" s="32"/>
       <c r="I42" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2770,7 +2770,7 @@
       <c r="G43" s="34"/>
       <c r="H43" s="34"/>
       <c r="I43" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="45">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="H44" s="32"/>
       <c r="I44" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2810,7 +2810,7 @@
       <c r="G45" s="34"/>
       <c r="H45" s="34"/>
       <c r="I45" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="30">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="H46" s="32"/>
       <c r="I46" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="36.75" customHeight="1">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="H47" s="32"/>
       <c r="I47" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="30">
@@ -2879,7 +2879,7 @@
       </c>
       <c r="H48" s="32"/>
       <c r="I48" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="30">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="H49" s="32"/>
       <c r="I49" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="60.75">
@@ -2911,7 +2911,7 @@
         <v>57</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F50" s="38" t="s">
         <v>89</v>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="H50" s="32"/>
       <c r="I50" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="52.5" customHeight="1">
@@ -2932,7 +2932,7 @@
         <v>62</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F51" s="32" t="s">
         <v>16</v>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="H51" s="32"/>
       <c r="I51" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="30">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="H52" s="32"/>
       <c r="I52" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="30">
@@ -2974,7 +2974,7 @@
         <v>91</v>
       </c>
       <c r="E53" s="44" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F53" s="45" t="s">
         <v>16</v>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="H53" s="32"/>
       <c r="I53" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="47.25" customHeight="1">
@@ -2992,20 +2992,20 @@
       <c r="B54" s="32"/>
       <c r="C54" s="32"/>
       <c r="D54" s="44" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E54" s="44" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F54" s="45">
         <v>9030248855</v>
       </c>
       <c r="G54" s="44" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H54" s="32"/>
       <c r="I54" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="45">
@@ -3013,18 +3013,18 @@
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
       <c r="D55" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="E55" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="F55" s="45" t="s">
         <v>282</v>
-      </c>
-      <c r="E55" s="44" t="s">
-        <v>283</v>
-      </c>
-      <c r="F55" s="45" t="s">
-        <v>284</v>
       </c>
       <c r="G55" s="44"/>
       <c r="H55" s="32"/>
       <c r="I55" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="20" customFormat="1">
@@ -3037,7 +3037,7 @@
       <c r="G56" s="41"/>
       <c r="H56" s="41"/>
       <c r="I56" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="30">
@@ -3062,7 +3062,7 @@
       <c r="G57" s="32"/>
       <c r="H57" s="33"/>
       <c r="I57" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3081,7 +3081,7 @@
       <c r="G58" s="32"/>
       <c r="H58" s="33"/>
       <c r="I58" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="45">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="H59" s="33"/>
       <c r="I59" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="45">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="H60" s="33"/>
       <c r="I60" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3136,7 +3136,7 @@
       <c r="G61" s="41"/>
       <c r="H61" s="43"/>
       <c r="I61" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="30">
@@ -3161,7 +3161,7 @@
       <c r="G62" s="33"/>
       <c r="H62" s="32"/>
       <c r="I62" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3180,7 +3180,7 @@
       <c r="G63" s="33"/>
       <c r="H63" s="32"/>
       <c r="I63" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="45">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="H64" s="32"/>
       <c r="I64" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="45">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="H65" s="32"/>
       <c r="I65" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="45" customHeight="1">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="H66" s="32"/>
       <c r="I66" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="27" customHeight="1">
@@ -3254,15 +3254,15 @@
         <v>62</v>
       </c>
       <c r="E67" s="51" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F67" s="36"/>
       <c r="G67" s="32" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H67" s="32"/>
       <c r="I67" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="27" customHeight="1">
@@ -3273,17 +3273,17 @@
         <v>90</v>
       </c>
       <c r="E68" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="F68" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="G68" s="32" t="s">
         <v>271</v>
-      </c>
-      <c r="F68" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="G68" s="32" t="s">
-        <v>273</v>
       </c>
       <c r="H68" s="32"/>
       <c r="I68" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="30">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="H69" s="32"/>
       <c r="I69" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3315,7 +3315,7 @@
       <c r="G70" s="41"/>
       <c r="H70" s="41"/>
       <c r="I70" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="30">
@@ -3340,7 +3340,7 @@
       <c r="G71" s="32"/>
       <c r="H71" s="32"/>
       <c r="I71" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3359,7 +3359,7 @@
       <c r="G72" s="32"/>
       <c r="H72" s="32"/>
       <c r="I72" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="30">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="H73" s="32"/>
       <c r="I73" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="30">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="H74" s="32"/>
       <c r="I74" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="30">
@@ -3421,10 +3421,10 @@
         <v>115</v>
       </c>
       <c r="H75" s="32" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I75" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3437,7 +3437,7 @@
       <c r="G76" s="41"/>
       <c r="H76" s="41"/>
       <c r="I76" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="30">
@@ -3462,7 +3462,7 @@
       <c r="G77" s="32"/>
       <c r="H77" s="32"/>
       <c r="I77" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3481,7 +3481,7 @@
       <c r="G78" s="32"/>
       <c r="H78" s="32"/>
       <c r="I78" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="45">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="H79" s="32"/>
       <c r="I79" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="45">
@@ -3523,7 +3523,7 @@
       </c>
       <c r="H80" s="32"/>
       <c r="I80" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3536,7 +3536,7 @@
       <c r="G81" s="41"/>
       <c r="H81" s="41"/>
       <c r="I81" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="30">
@@ -3561,7 +3561,7 @@
       <c r="G82" s="32"/>
       <c r="H82" s="32"/>
       <c r="I82" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3580,7 +3580,7 @@
       <c r="G83" s="32"/>
       <c r="H83" s="32"/>
       <c r="I83" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="75" customHeight="1">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="H84" s="32"/>
       <c r="I84" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3614,12 +3614,12 @@
       <c r="G85" s="41"/>
       <c r="H85" s="41"/>
       <c r="I85" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="30">
       <c r="A86" s="32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B86" s="32" t="s">
         <v>126</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="H86" s="32"/>
       <c r="I86" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="39.75" customHeight="1">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="H87" s="32"/>
       <c r="I87" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="30">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="H88" s="32"/>
       <c r="I88" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="57" customHeight="1">
@@ -3704,7 +3704,7 @@
       </c>
       <c r="H89" s="32"/>
       <c r="I89" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="47.25" customHeight="1">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="H90" s="32"/>
       <c r="I90" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="51.75" customHeight="1">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="H91" s="32"/>
       <c r="I91" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="30">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="H92" s="32"/>
       <c r="I92" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="45">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="H93" s="32"/>
       <c r="I93" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3801,7 +3801,7 @@
       <c r="G94" s="41"/>
       <c r="H94" s="41"/>
       <c r="I94" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J94" s="20"/>
     </row>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="H95" s="5"/>
       <c r="I95" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="90">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="H96" s="5"/>
       <c r="I96" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="45">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="H97" s="5"/>
       <c r="I97" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="30">
@@ -3882,17 +3882,17 @@
         <v>42</v>
       </c>
       <c r="E98" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="F98" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="F98" s="52" t="s">
+      <c r="G98" s="52" t="s">
         <v>205</v>
-      </c>
-      <c r="G98" s="52" t="s">
-        <v>206</v>
       </c>
       <c r="H98" s="53"/>
       <c r="I98" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3905,7 +3905,7 @@
       <c r="G99" s="41"/>
       <c r="H99" s="19"/>
       <c r="I99" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J99" s="20"/>
     </row>
@@ -3930,7 +3930,7 @@
         <v>20</v>
       </c>
       <c r="I100" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="90">
@@ -3950,7 +3950,7 @@
         <v>27</v>
       </c>
       <c r="I101" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="30">
@@ -3970,7 +3970,7 @@
         <v>150</v>
       </c>
       <c r="I102" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="30">
@@ -3988,7 +3988,7 @@
         <v>153</v>
       </c>
       <c r="I103" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -4001,7 +4001,7 @@
       <c r="G104" s="43"/>
       <c r="H104" s="20"/>
       <c r="I104" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J104" s="20"/>
     </row>
@@ -4028,7 +4028,7 @@
         <v>20</v>
       </c>
       <c r="I105" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="27.75" customHeight="1">
@@ -4048,7 +4048,7 @@
         <v>27</v>
       </c>
       <c r="I106" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="54.75" customHeight="1">
@@ -4059,7 +4059,7 @@
         <v>39</v>
       </c>
       <c r="E107" s="32" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F107" s="32"/>
       <c r="G107" s="32" t="s">
@@ -4067,7 +4067,7 @@
       </c>
       <c r="H107" s="5"/>
       <c r="I107" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="30">
@@ -4078,7 +4078,7 @@
         <v>42</v>
       </c>
       <c r="E108" s="32" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F108" s="32" t="s">
         <v>16</v>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="H108" s="5"/>
       <c r="I108" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -4101,7 +4101,7 @@
       <c r="G109" s="41"/>
       <c r="H109" s="19"/>
       <c r="I109" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J109" s="20"/>
     </row>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="H110" s="5"/>
       <c r="I110" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="90">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="H111" s="5"/>
       <c r="I111" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="30">
@@ -4161,7 +4161,7 @@
         <v>84</v>
       </c>
       <c r="E112" s="32" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F112" s="32" t="s">
         <v>16</v>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="H112" s="5"/>
       <c r="I112" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="113" spans="1:9" s="26" customFormat="1">
@@ -4184,7 +4184,7 @@
       <c r="G113" s="46"/>
       <c r="H113" s="25"/>
       <c r="I113" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="45">
@@ -4192,7 +4192,7 @@
         <v>161</v>
       </c>
       <c r="B114" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C114" s="32" t="s">
         <v>16</v>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="H114" s="5"/>
       <c r="I114" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="45">
@@ -4232,7 +4232,7 @@
       </c>
       <c r="H115" s="5"/>
       <c r="I115" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4245,7 +4245,7 @@
       <c r="G116" s="41"/>
       <c r="H116" s="5"/>
       <c r="I116" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="30">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="H117" s="5"/>
       <c r="I117" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="90">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="H118" s="5"/>
       <c r="I118" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="H119" s="5"/>
       <c r="I119" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="30">
@@ -4333,7 +4333,7 @@
       </c>
       <c r="H120" s="5"/>
       <c r="I120" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4346,7 +4346,7 @@
       <c r="G121" s="41"/>
       <c r="H121" s="5"/>
       <c r="I121" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="30">
@@ -9462,7 +9462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -9478,19 +9478,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="E1" s="27" t="s">
         <v>211</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>212</v>
       </c>
       <c r="F1" s="27" t="s">
         <v>172</v>
@@ -9498,45 +9498,45 @@
     </row>
     <row r="2" spans="1:6" ht="105">
       <c r="A2" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="75">
       <c r="A3" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="90">
       <c r="A4" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -9671,36 +9671,36 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D1" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>232</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30">
       <c r="A2" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>235</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>237</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2">
@@ -9709,16 +9709,16 @@
     </row>
     <row r="3" spans="1:6" ht="30">
       <c r="A3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3">
@@ -9727,17 +9727,17 @@
     </row>
     <row r="4" spans="1:6" ht="60">
       <c r="A4" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F4">
         <v>201</v>
@@ -9745,19 +9745,19 @@
     </row>
     <row r="5" spans="1:6" ht="56.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F5">
         <v>200</v>
@@ -9765,16 +9765,16 @@
     </row>
     <row r="6" spans="1:6" ht="30">
       <c r="A6" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="E6" s="29"/>
     </row>
@@ -11277,22 +11277,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="30" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>252</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>254</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>11</v>
@@ -11300,48 +11300,48 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="31" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D2" s="31">
         <v>1</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="31" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D3" s="31">
         <v>2</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
